--- a/MatrizSintaxis.xlsx
+++ b/MatrizSintaxis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5A9785-263D-4220-86B6-994445340C1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241696F7-0757-45EC-A15E-F44538D4CCA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B5C6C119-DA4A-4A0E-95E9-F42D09A65D4A}"/>
   </bookViews>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -924,10 +918,10 @@
   <dimension ref="A1:CS125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3705" ySplit="615" topLeftCell="BQ1" activePane="bottomRight"/>
+      <pane xSplit="3705" ySplit="615" topLeftCell="AB1" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="BW2" sqref="BW2"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
-      <selection pane="bottomRight" activeCell="CS4" sqref="CS4"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27:XFD27"/>
+      <selection pane="bottomRight" activeCell="AK28" sqref="AK28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8660,7 +8654,7 @@
         <v>610</v>
       </c>
       <c r="AJ27">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="AK27" s="5">
         <v>610</v>

--- a/MatrizSintaxis.xlsx
+++ b/MatrizSintaxis.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241696F7-0757-45EC-A15E-F44538D4CCA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0100B1F-A853-4C5C-BBAA-4E3A27C40847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B5C6C119-DA4A-4A0E-95E9-F42D09A65D4A}"/>
+    <workbookView xWindow="36690" yWindow="2070" windowWidth="21600" windowHeight="11385" xr2:uid="{B5C6C119-DA4A-4A0E-95E9-F42D09A65D4A}"/>
+    <workbookView xWindow="37035" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{8B6B15C7-C3BC-4C82-81C1-1F589BFF98B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -917,11 +918,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DFDD5D-EDCA-420F-BF6D-F59C16F82ACB}">
   <dimension ref="A1:CS125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3705" ySplit="615" topLeftCell="AB1" activePane="bottomRight"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="5925" ySplit="1035" topLeftCell="AJ31" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="BW2" sqref="BW2"/>
       <selection pane="bottomLeft" activeCell="A27" sqref="A27:XFD27"/>
-      <selection pane="bottomRight" activeCell="AK28" sqref="AK28"/>
+      <selection pane="bottomRight" activeCell="AJ48" sqref="AJ48"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <pane xSplit="5100" ySplit="900" topLeftCell="H22" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3087,7 +3094,7 @@
         <v>600</v>
       </c>
       <c r="AJ8">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="AK8" s="5">
         <v>606</v>
@@ -4845,7 +4852,7 @@
         <v>600</v>
       </c>
       <c r="AJ14">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="AK14" s="5">
         <v>610</v>
@@ -5431,7 +5438,7 @@
         <v>600</v>
       </c>
       <c r="AJ16">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="AK16" s="5">
         <v>610</v>
@@ -6016,8 +6023,8 @@
       <c r="AI18" s="6">
         <v>600</v>
       </c>
-      <c r="AJ18">
-        <v>125</v>
+      <c r="AJ18" s="4">
+        <v>34</v>
       </c>
       <c r="AK18" s="5">
         <v>610</v>
@@ -6602,8 +6609,8 @@
       <c r="AI20" s="6">
         <v>600</v>
       </c>
-      <c r="AJ20">
-        <v>125</v>
+      <c r="AJ20" s="4">
+        <v>37</v>
       </c>
       <c r="AK20" s="5">
         <v>610</v>
@@ -7188,8 +7195,8 @@
       <c r="AI22" s="6">
         <v>600</v>
       </c>
-      <c r="AJ22">
-        <v>125</v>
+      <c r="AJ22" s="4">
+        <v>39</v>
       </c>
       <c r="AK22" s="5">
         <v>610</v>
@@ -7774,8 +7781,8 @@
       <c r="AI24" s="6">
         <v>600</v>
       </c>
-      <c r="AJ24">
-        <v>125</v>
+      <c r="AJ24" s="4">
+        <v>41</v>
       </c>
       <c r="AK24" s="5">
         <v>610</v>
@@ -9825,8 +9832,8 @@
       <c r="AI31" s="6">
         <v>600</v>
       </c>
-      <c r="AJ31">
-        <v>125</v>
+      <c r="AJ31" s="4">
+        <v>57</v>
       </c>
       <c r="AK31" s="5">
         <v>610</v>
@@ -10997,8 +11004,8 @@
       <c r="AI35" s="6">
         <v>600</v>
       </c>
-      <c r="AJ35">
-        <v>125</v>
+      <c r="AJ35" s="4">
+        <v>69</v>
       </c>
       <c r="AK35" s="5">
         <v>622</v>
@@ -11583,8 +11590,8 @@
       <c r="AI37" s="5">
         <v>610</v>
       </c>
-      <c r="AJ37">
-        <v>125</v>
+      <c r="AJ37" s="4">
+        <v>72</v>
       </c>
       <c r="AK37" s="5">
         <v>610</v>
@@ -11876,8 +11883,8 @@
       <c r="AI38" s="5">
         <v>624</v>
       </c>
-      <c r="AJ38">
-        <v>125</v>
+      <c r="AJ38" s="4">
+        <v>81</v>
       </c>
       <c r="AK38" s="5">
         <v>624</v>
@@ -12462,8 +12469,8 @@
       <c r="AI40" s="6">
         <v>600</v>
       </c>
-      <c r="AJ40">
-        <v>125</v>
+      <c r="AJ40" s="4">
+        <v>85</v>
       </c>
       <c r="AK40" s="5">
         <v>610</v>
@@ -13048,8 +13055,8 @@
       <c r="AI42" s="6">
         <v>600</v>
       </c>
-      <c r="AJ42">
-        <v>125</v>
+      <c r="AJ42" s="4">
+        <v>96</v>
       </c>
       <c r="AK42" s="5">
         <v>610</v>
@@ -13634,8 +13641,8 @@
       <c r="AI44" s="6">
         <v>600</v>
       </c>
-      <c r="AJ44">
-        <v>125</v>
+      <c r="AJ44" s="4">
+        <v>98</v>
       </c>
       <c r="AK44" s="5">
         <v>610</v>
@@ -14220,8 +14227,8 @@
       <c r="AI46" s="6">
         <v>600</v>
       </c>
-      <c r="AJ46">
-        <v>125</v>
+      <c r="AJ46" s="4">
+        <v>100</v>
       </c>
       <c r="AK46" s="5">
         <v>610</v>
@@ -14806,8 +14813,8 @@
       <c r="AI48" s="6">
         <v>600</v>
       </c>
-      <c r="AJ48">
-        <v>125</v>
+      <c r="AJ48" s="4">
+        <v>102</v>
       </c>
       <c r="AK48" s="5">
         <v>610</v>
